--- a/target/test-classes/testdata/links.xlsx
+++ b/target/test-classes/testdata/links.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CGUELER.COMPUTACENTER\IdeaProjects\googleFonts\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E035987-72F4-451B-94EC-C7EBCCF68446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069C9FD1-1E32-45E8-AA11-62A8061D04CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4385D72E-68A0-4CE5-9B60-85E4597D15AB}"/>
+    <workbookView xWindow="32040" yWindow="240" windowWidth="9675" windowHeight="12360" xr2:uid="{4385D72E-68A0-4CE5-9B60-85E4597D15AB}"/>
   </bookViews>
   <sheets>
     <sheet name="urlList" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="540">
   <si>
     <t>nummer</t>
   </si>
@@ -44,304 +44,1625 @@
     <t>url</t>
   </si>
   <si>
+    <t>adl.musin.de</t>
+  </si>
+  <si>
+    <t>afr.musin.de</t>
+  </si>
+  <si>
+    <t>afrblog.musin.de</t>
+  </si>
+  <si>
+    <t>ag.musin.de</t>
+  </si>
+  <si>
+    <t>agilolfi.musin.de</t>
+  </si>
+  <si>
+    <t>ak-mathe.muc.kobis.de</t>
+  </si>
+  <si>
+    <t>akr.musin.de</t>
+  </si>
+  <si>
+    <t>arbeitskreis-schule-wirtschaft.musin.de</t>
+  </si>
+  <si>
+    <t>asam-gymnasium.musin.de</t>
+  </si>
+  <si>
+    <t>aschweitzer.musin.de</t>
+  </si>
+  <si>
+    <t>asg.musin.de</t>
+  </si>
+  <si>
+    <t>asr.musin.de</t>
+  </si>
+  <si>
+    <t>asr2.musin.de</t>
+  </si>
+  <si>
+    <t>awb.musin.de</t>
+  </si>
+  <si>
+    <t>awg.musin.de</t>
+  </si>
+  <si>
+    <t>awgintra.musin.de</t>
+  </si>
+  <si>
+    <t>bau-gebht.musin.de</t>
+  </si>
+  <si>
+    <t>bau-gebkri.musin.de</t>
+  </si>
+  <si>
+    <t>bau-gkb.musin.de</t>
+  </si>
+  <si>
+    <t>bauhausplatz9.musin.de</t>
+  </si>
+  <si>
+    <t>bbg.musin.de</t>
+  </si>
+  <si>
+    <t>bdb.musin.de</t>
+  </si>
+  <si>
+    <t>bergmann.musin.de</t>
+  </si>
+  <si>
+    <t>berufsintegration.musin.de</t>
+  </si>
+  <si>
+    <t>birkenfeld.musin.de</t>
+  </si>
+  <si>
+    <t>bnrs.musin.de</t>
+  </si>
+  <si>
+    <t>boki.musin.de</t>
+  </si>
+  <si>
+    <t>boki2.musin.de</t>
+  </si>
+  <si>
+    <t>books.musin.de</t>
+  </si>
+  <si>
+    <t>boschl.musin.de</t>
+  </si>
+  <si>
+    <t>bosgs.musin.de</t>
+  </si>
+  <si>
+    <t>bos-sozial.musin.de</t>
+  </si>
+  <si>
+    <t>boswirt.musin.de</t>
+  </si>
+  <si>
+    <t>bs-auge.musin.de</t>
+  </si>
+  <si>
+    <t>bsbaeko.musin.de</t>
+  </si>
+  <si>
+    <t>bsbkik.musin.de</t>
+  </si>
+  <si>
+    <t>bseinzelh.musin.de</t>
+  </si>
+  <si>
+    <t>bsfahrz.musin.de</t>
+  </si>
+  <si>
+    <t>bs-fia.musin.de</t>
+  </si>
+  <si>
+    <t>bs-finanz-immo.musin.de</t>
+  </si>
+  <si>
+    <t>bs-friseur.musin.de</t>
+  </si>
+  <si>
+    <t>bsgastro.musin.de</t>
+  </si>
+  <si>
+    <t>bsgastro2.musin.de</t>
+  </si>
+  <si>
+    <t>bs-gesundheit.musin.de</t>
+  </si>
+  <si>
+    <t>bs-gfv.musin.de</t>
+  </si>
+  <si>
+    <t>bsgha.musin.de</t>
+  </si>
+  <si>
+    <t>bshi.musin.de</t>
+  </si>
+  <si>
+    <t>bsie.musin.de</t>
+  </si>
+  <si>
+    <t>bsindus.musin.de</t>
+  </si>
+  <si>
+    <t>bsinfo.musin.de</t>
+  </si>
+  <si>
+    <t>bsinstall.musin.de</t>
+  </si>
+  <si>
+    <t>bskfz.musin.de</t>
+  </si>
+  <si>
+    <t>bskinde.musin.de</t>
+  </si>
+  <si>
+    <t>bskomm.musin.de</t>
+  </si>
+  <si>
+    <t>bsmedien.musin.de</t>
+  </si>
+  <si>
+    <t>bsmedien2.musin.de</t>
+  </si>
+  <si>
+    <t>bsmetzger.musin.de</t>
+  </si>
+  <si>
+    <t>bsortho.musin.de</t>
+  </si>
+  <si>
+    <t>bspedtour.musin.de</t>
+  </si>
+  <si>
+    <t>bs-recht.musin.de</t>
+  </si>
+  <si>
+    <t>bs-steuern.musin.de</t>
+  </si>
+  <si>
+    <t>bs-stimmo.musin.de</t>
+  </si>
+  <si>
+    <t>bsv.musin.de</t>
+  </si>
+  <si>
+    <t>bszfahrzeugtechnik.musin.de</t>
+  </si>
+  <si>
+    <t>bsz-intern.musin.de</t>
+  </si>
+  <si>
+    <t>bs-zt-chem.musin.de</t>
+  </si>
+  <si>
+    <t>burmester.musin.de</t>
+  </si>
+  <si>
+    <t>bvjinfo.muc.kobis.de</t>
+  </si>
+  <si>
+    <t>bzao.musin.de</t>
+  </si>
+  <si>
+    <t>bzmswlba.musin.de</t>
+  </si>
+  <si>
+    <t>bzs-solar.musin.de</t>
+  </si>
+  <si>
+    <t>camerloher-schule.musin.de</t>
+  </si>
+  <si>
+    <t>cincin-daten.musin.de</t>
+  </si>
+  <si>
+    <t>clippy.musin.de</t>
+  </si>
+  <si>
+    <t>cloud-geb.musin.de</t>
+  </si>
+  <si>
+    <t>comenius.muc.kobis.de</t>
+  </si>
+  <si>
+    <t>csr.musin.de</t>
+  </si>
+  <si>
+    <t>cvl.musin.de</t>
+  </si>
+  <si>
+    <t>dag.musin.de</t>
+  </si>
+  <si>
+    <t>dasegg.musin.de</t>
+  </si>
+  <si>
+    <t>datencincin.musin.de</t>
+  </si>
+  <si>
+    <t>datenschutz-fs.musin.de</t>
+  </si>
+  <si>
+    <t>daz.muc.kobis.de</t>
+  </si>
+  <si>
+    <t>dom-pedro.musin.de</t>
+  </si>
+  <si>
+    <t>dompedro-nextcloud.musin.de</t>
+  </si>
+  <si>
+    <t>droste.musin.de</t>
+  </si>
+  <si>
+    <t>eb-helmholtz.musin.de</t>
+  </si>
+  <si>
+    <t>ed-sprang.musin.de</t>
+  </si>
+  <si>
+    <t>ehr.musin.de</t>
+  </si>
+  <si>
+    <t>ekr.musin.de</t>
+  </si>
+  <si>
+    <t>elly-heuss.musin.de</t>
+  </si>
+  <si>
+    <t>elsa.musin.de</t>
+  </si>
+  <si>
+    <t>elteer.musin.de</t>
+  </si>
+  <si>
+    <t>er.musin.de</t>
+  </si>
+  <si>
+    <t>eversbusch.musin.de</t>
+  </si>
+  <si>
+    <t>farinelli.musin.de</t>
+  </si>
+  <si>
+    <t>fas.musin.de</t>
+  </si>
+  <si>
+    <t>fb9.muc.kobis.de</t>
+  </si>
+  <si>
+    <t>fehwiesen.musin.de</t>
+  </si>
+  <si>
+    <t>ffa.musin.de</t>
+  </si>
+  <si>
+    <t>fim.musin.de</t>
+  </si>
+  <si>
+    <t>finanzen.musin.de</t>
+  </si>
+  <si>
+    <t>firm.musin.de</t>
+  </si>
+  <si>
+    <t>flistws.musin.de</t>
+  </si>
+  <si>
+    <t>flurschule.musin.de</t>
+  </si>
+  <si>
+    <t>fnr.musin.de</t>
+  </si>
+  <si>
+    <t>fnr-new.musin.de</t>
+  </si>
+  <si>
+    <t>foesdach98.musin.de</t>
+  </si>
+  <si>
+    <t>foes-froet.musin.de</t>
+  </si>
+  <si>
+    <t>foesgilm.musin.de</t>
+  </si>
+  <si>
+    <t>foes-ir.musin.de</t>
+  </si>
+  <si>
+    <t>foeskirch.musin.de</t>
+  </si>
+  <si>
+    <t>foes-rothpl.musin.de</t>
+  </si>
+  <si>
+    <t>foestieler.musin.de</t>
+  </si>
+  <si>
+    <t>foe-stuntz.musin.de</t>
+  </si>
+  <si>
+    <t>forelle.musin.de</t>
+  </si>
+  <si>
+    <t>fosbos.musin.de</t>
+  </si>
+  <si>
+    <t>fos-gest.musin.de</t>
+  </si>
+  <si>
+    <t>fos-gestaltung.musin.de</t>
+  </si>
+  <si>
+    <t>fos-nord.musin.de</t>
+  </si>
+  <si>
+    <t>fosszg.musin.de</t>
+  </si>
+  <si>
+    <t>fostech.musin.de</t>
+  </si>
+  <si>
+    <t>fos-wvr.musin.de</t>
+  </si>
+  <si>
+    <t>frageboegen.musin.de</t>
+  </si>
+  <si>
+    <t>frageboegen2.musin.de</t>
+  </si>
+  <si>
+    <t>fraunhofer-rs.musin.de</t>
+  </si>
+  <si>
+    <t>friebrs.musin.de</t>
+  </si>
+  <si>
+    <t>fritzlutz.musin.de</t>
+  </si>
+  <si>
+    <t>fsflt.musin.de</t>
+  </si>
+  <si>
+    <t>fsgilm.musin.de</t>
+  </si>
+  <si>
+    <t>fsheizung.musin.de</t>
+  </si>
+  <si>
+    <t>fsinnring.musin.de</t>
+  </si>
+  <si>
+    <t>fskirchen.musin.de</t>
+  </si>
+  <si>
+    <t>ft-deroy.musin.de</t>
+  </si>
+  <si>
+    <t>fz-speck.musin.de</t>
+  </si>
+  <si>
+    <t>gaenselies.musin.de</t>
+  </si>
+  <si>
+    <t>ganztag-muenchen.musin.de</t>
+  </si>
+  <si>
+    <t>ganztag-muenchen-alt.musin.de</t>
+  </si>
+  <si>
+    <t>gartenbau.musin.de</t>
+  </si>
+  <si>
+    <t>gbr.musin.de</t>
+  </si>
+  <si>
+    <t>geb.musin.de</t>
+  </si>
+  <si>
+    <t>gebfoes.musin.de</t>
+  </si>
+  <si>
+    <t>geb-gs.musin.de</t>
+  </si>
+  <si>
+    <t>gebht.musin.de</t>
+  </si>
+  <si>
+    <t>geb-kita.musin.de</t>
+  </si>
+  <si>
+    <t>gebkri.musin.de</t>
+  </si>
+  <si>
+    <t>geb-ms.musin.de</t>
+  </si>
+  <si>
+    <t>geolinde.musin.de</t>
+  </si>
+  <si>
+    <t>gfk3.muc.kobis.de</t>
+  </si>
+  <si>
+    <t>ggb.musin.de</t>
+  </si>
+  <si>
+    <t>giselagym.musin.de</t>
+  </si>
+  <si>
+    <t>gkb.musin.de</t>
+  </si>
+  <si>
+    <t>glw.musin.de</t>
+  </si>
+  <si>
+    <t>gmf.musin.de</t>
+  </si>
+  <si>
+    <t>gmm.musin.de</t>
+  </si>
+  <si>
+    <t>gotzinger-gs.musin.de</t>
+  </si>
+  <si>
+    <t>gotzis.musin.de</t>
+  </si>
+  <si>
+    <t>gotziscloud.musin.de</t>
+  </si>
+  <si>
+    <t>grafini.musin.de</t>
+  </si>
+  <si>
+    <t>grundschule-herrnstr.musin.de</t>
+  </si>
+  <si>
+    <t>gsals.musin.de</t>
+  </si>
+  <si>
+    <t>gsb.musin.de</t>
+  </si>
+  <si>
+    <t>gsbadsoden.musin.de</t>
+  </si>
+  <si>
+    <t>gsbaecker.musin.de</t>
+  </si>
+  <si>
+    <t>gs-baierbrunnerstrasse.musin.de</t>
+  </si>
+  <si>
+    <t>gsbal.musin.de</t>
+  </si>
+  <si>
+    <t>gsbalan.musin.de</t>
+  </si>
+  <si>
+    <t>gsbayern.musin.de</t>
+  </si>
+  <si>
+    <t>gsbazi.musin.de</t>
+  </si>
+  <si>
+    <t>gsberner.musin.de</t>
+  </si>
+  <si>
+    <t>gsberner2.musin.de</t>
+  </si>
+  <si>
+    <t>gsblumenau.musin.de</t>
+  </si>
+  <si>
+    <t>gsblutenburg.musin.de</t>
+  </si>
+  <si>
+    <t>gsbosch.musin.de</t>
+  </si>
+  <si>
+    <t>gscanisius.musin.de</t>
+  </si>
+  <si>
+    <t>gsdachauer.musin.de</t>
+  </si>
+  <si>
+    <t>gs-danzi.musin.de</t>
+  </si>
+  <si>
+    <t>gs-danzi2.musin.de</t>
+  </si>
+  <si>
+    <t>gsdietzi.musin.de</t>
+  </si>
+  <si>
+    <t>gsfasanerie.musin.de</t>
+  </si>
+  <si>
+    <t>gs-feldberg.musin.de</t>
+  </si>
+  <si>
+    <t>gsfernpass.musin.de</t>
+  </si>
+  <si>
+    <t>gsforst.musin.de</t>
+  </si>
+  <si>
+    <t>gs-freiham.musin.de</t>
+  </si>
+  <si>
+    <t>gs-froett.musin.de</t>
+  </si>
+  <si>
+    <t>gsfromund.musin.de</t>
+  </si>
+  <si>
+    <t>gsfuehrich.musin.de</t>
+  </si>
+  <si>
+    <t>gsfuerst.musin.de</t>
+  </si>
+  <si>
+    <t>gsg.musin.de</t>
+  </si>
+  <si>
+    <t>gsgaepl.musin.de</t>
+  </si>
+  <si>
+    <t>gsgaertnerplatz.musin.de</t>
+  </si>
+  <si>
+    <t>gsgebele.musin.de</t>
+  </si>
+  <si>
+    <t>gsgera.musin.de</t>
+  </si>
+  <si>
+    <t>gs-gilm.musin.de</t>
+  </si>
+  <si>
+    <t>gsgotzing.musin.de</t>
+  </si>
+  <si>
+    <t>gsgotzmann.musin.de</t>
+  </si>
+  <si>
+    <t>gsgrandl.musin.de</t>
+  </si>
+  <si>
+    <t>gsgrimm.musin.de</t>
+  </si>
+  <si>
+    <t>gs-grosshadern.musin.de</t>
+  </si>
+  <si>
+    <t>gs-guardini.musin.de</t>
+  </si>
+  <si>
+    <t>gs-guardini-cloud.musin.de</t>
+  </si>
+  <si>
+    <t>gsh.musin.de</t>
+  </si>
+  <si>
+    <t>gs-haimhauser.musin.de</t>
+  </si>
+  <si>
+    <t>gs-hanselmannstrasse.musin.de</t>
+  </si>
+  <si>
+    <t>gs-hirschberg.musin.de</t>
+  </si>
+  <si>
+    <t>gs-hugo-wolf.musin.de</t>
+  </si>
+  <si>
+    <t>gshvbingen.musin.de</t>
+  </si>
+  <si>
+    <t>gs-icho.musin.de</t>
+  </si>
+  <si>
+    <t>gsimpler.musin.de</t>
+  </si>
+  <si>
+    <t>gsittlinger.musin.de</t>
+  </si>
+  <si>
+    <t>gsittlinger36.musin.de</t>
+  </si>
+  <si>
+    <t>gsjb.musin.de</t>
+  </si>
+  <si>
+    <t>gs-jenaer.musin.de</t>
+  </si>
+  <si>
+    <t>gs-kafka.musin.de</t>
+  </si>
+  <si>
+    <t>gskirchen.musin.de</t>
+  </si>
+  <si>
+    <t>gskirchenstr11.musin.de</t>
+  </si>
+  <si>
+    <t>gsknapp.musin.de</t>
+  </si>
+  <si>
+    <t>gs-konrad-celtis.musin.de</t>
+  </si>
+  <si>
+    <t>gslerche.musin.de</t>
+  </si>
+  <si>
+    <t>gs-lgw.musin.de</t>
+  </si>
+  <si>
+    <t>gslimes.musin.de</t>
+  </si>
+  <si>
+    <t>gslimes2.musin.de</t>
+  </si>
+  <si>
+    <t>gslincoln.musin.de</t>
+  </si>
+  <si>
+    <t>gsmanzo.musin.de</t>
+  </si>
+  <si>
+    <t>gsmaxkolmi.musin.de</t>
+  </si>
+  <si>
+    <t>gsmg.musin.de</t>
+  </si>
+  <si>
+    <t>gsmhp.musin.de</t>
+  </si>
+  <si>
+    <t>gsofoe.musin.de</t>
+  </si>
+  <si>
+    <t>gs-paulcke.musin.de</t>
+  </si>
+  <si>
+    <t>gspesl.musin.de</t>
+  </si>
+  <si>
+    <t>gspfanzelt.musin.de</t>
+  </si>
+  <si>
+    <t>gspfeufer.musin.de</t>
+  </si>
+  <si>
+    <t>gs-plingans.musin.de</t>
+  </si>
+  <si>
+    <t>gsravensb.musin.de</t>
+  </si>
+  <si>
+    <t>gsregina.musin.de</t>
+  </si>
+  <si>
+    <t>gsrenn.musin.de</t>
+  </si>
+  <si>
+    <t>gs-rothpletz.musin.de</t>
+  </si>
+  <si>
+    <t>gssantana.musin.de</t>
+  </si>
+  <si>
+    <t>gs-scherer.musin.de</t>
+  </si>
+  <si>
+    <t>gsschrob.musin.de</t>
+  </si>
+  <si>
+    <t>gs-schubinweg.musin.de</t>
+  </si>
+  <si>
+    <t>gs-schwan.musin.de</t>
+  </si>
+  <si>
+    <t>gsschwind.musin.de</t>
+  </si>
+  <si>
+    <t>gssenftenau.musin.de</t>
+  </si>
+  <si>
+    <t>gsstanna.musin.de</t>
+  </si>
+  <si>
+    <t>gs-stieler.musin.de</t>
+  </si>
+  <si>
+    <t>gsstrehler.musin.de</t>
+  </si>
+  <si>
+    <t>gs-stuntz.musin.de</t>
+  </si>
+  <si>
+    <t>gsstuntz.musin.de</t>
+  </si>
+  <si>
+    <t>gssv.musin.de</t>
+  </si>
+  <si>
+    <t>gsthelott.musin.de</t>
+  </si>
+  <si>
+    <t>gstheuss.musin.de</t>
+  </si>
+  <si>
+    <t>gs-toni-pfuelf.musin.de</t>
+  </si>
+  <si>
+    <t>gstonpfulf.musin.de</t>
+  </si>
+  <si>
+    <t>gstota.musin.de</t>
+  </si>
+  <si>
+    <t>gstpf.musin.de</t>
+  </si>
+  <si>
+    <t>gstumbl.musin.de</t>
+  </si>
+  <si>
+    <t>gs-turner.musin.de</t>
+  </si>
+  <si>
+    <t>gswalliser.musin.de</t>
+  </si>
+  <si>
+    <t>gsweiss.musin.de</t>
+  </si>
+  <si>
+    <t>gs-werdenfels.musin.de</t>
+  </si>
+  <si>
+    <t>gs-wies.musin.de</t>
+  </si>
+  <si>
+    <t>gswilhelm.musin.de</t>
+  </si>
+  <si>
+    <t>gswinthir.musin.de</t>
+  </si>
+  <si>
+    <t>gsziel.musin.de</t>
+  </si>
+  <si>
+    <t>gymm.musin.de</t>
+  </si>
+  <si>
+    <t>gym-muc-moosach.musin.de</t>
+  </si>
+  <si>
+    <t>gymnasiumfeldmoching.musin.de</t>
+  </si>
+  <si>
+    <t>gymzag.musin.de</t>
+  </si>
+  <si>
+    <t>haslbeck.musin.de</t>
+  </si>
+  <si>
+    <t>helmholtz.musin.de</t>
+  </si>
+  <si>
+    <t>herrnstr.musin.de</t>
+  </si>
+  <si>
+    <t>herterich.musin.de</t>
+  </si>
+  <si>
+    <t>herterich2.musin.de</t>
+  </si>
+  <si>
+    <t>hkrs.musin.de</t>
+  </si>
+  <si>
+    <t>hkrs-cloud.musin.de</t>
+  </si>
+  <si>
+    <t>hmm.musin.de</t>
+  </si>
+  <si>
+    <t>holzbau.musin.de</t>
+  </si>
+  <si>
+    <t>hort-berg.musin.de</t>
+  </si>
+  <si>
+    <t>hort-burm.musin.de</t>
+  </si>
+  <si>
+    <t>hort-dill.musin.de</t>
+  </si>
+  <si>
+    <t>hort-dros.musin.de</t>
+  </si>
+  <si>
+    <t>hort-fari.musin.de</t>
+  </si>
+  <si>
+    <t>hort-fore.musin.de</t>
+  </si>
+  <si>
+    <t>hort-from.musin.de</t>
+  </si>
+  <si>
+    <t>hort-graf.musin.de</t>
+  </si>
+  <si>
+    <t>hort-guld.musin.de</t>
+  </si>
+  <si>
+    <t>hort-hein.musin.de</t>
+  </si>
+  <si>
+    <t>hort-herm.musin.de</t>
+  </si>
+  <si>
+    <t>hort-impl.musin.de</t>
+  </si>
+  <si>
+    <t>hort-koen.musin.de</t>
+  </si>
+  <si>
+    <t>hort-lerc.musin.de</t>
+  </si>
+  <si>
+    <t>hort-nadi.musin.de</t>
+  </si>
+  <si>
+    <t>hort-nang.musin.de</t>
+  </si>
+  <si>
+    <t>hort-perl.musin.de</t>
+  </si>
+  <si>
+    <t>hort-quid.musin.de</t>
+  </si>
+  <si>
+    <t>hort-rieg.musin.de</t>
+  </si>
+  <si>
+    <t>hort-rudo.musin.de</t>
+  </si>
+  <si>
+    <t>hort-schl.musin.de</t>
+  </si>
+  <si>
+    <t>hort-scho.musin.de</t>
+  </si>
+  <si>
+    <t>hort-schu.musin.de</t>
+  </si>
+  <si>
+    <t>hort-stie.musin.de</t>
+  </si>
+  <si>
+    <t>hort-tuer.musin.de</t>
+  </si>
+  <si>
+    <t>hort-wies.musin.de</t>
+  </si>
+  <si>
+    <t>hort-ziel.musin.de</t>
+  </si>
+  <si>
+    <t>hp.musin.de</t>
+  </si>
+  <si>
+    <t>hsalf.musin.de</t>
+  </si>
+  <si>
+    <t>hsbayern.musin.de</t>
+  </si>
+  <si>
+    <t>hsblumen.musin.de</t>
+  </si>
+  <si>
+    <t>hscincin.musin.de</t>
+  </si>
+  <si>
+    <t>hsecha.musin.de</t>
+  </si>
+  <si>
+    <t>hsfeld.musin.de</t>
+  </si>
+  <si>
+    <t>hsfromund.musin.de</t>
+  </si>
+  <si>
+    <t>hsfuehrich.musin.de</t>
+  </si>
+  <si>
+    <t>hsghrm.musin.de</t>
+  </si>
+  <si>
+    <t>hs-gotzing.musin.de</t>
+  </si>
+  <si>
+    <t>hsguardini.musin.de</t>
+  </si>
+  <si>
+    <t>hslw.musin.de</t>
+  </si>
+  <si>
+    <t>hs-neuaubing.musin.de</t>
+  </si>
+  <si>
+    <t>hsreich.musin.de</t>
+  </si>
+  <si>
+    <t>hssam.musin.de</t>
+  </si>
+  <si>
+    <t>hsschleiss.musin.de</t>
+  </si>
+  <si>
+    <t>hsschrob.musin.de</t>
+  </si>
+  <si>
+    <t>hsschwind.musin.de</t>
+  </si>
+  <si>
+    <t>hs-simmern.musin.de</t>
+  </si>
+  <si>
+    <t>hsspranger.musin.de</t>
+  </si>
+  <si>
+    <t>hswinth.musin.de</t>
+  </si>
+  <si>
+    <t>hswitte.musin.de</t>
+  </si>
+  <si>
+    <t>hswoerth.musin.de</t>
+  </si>
+  <si>
+    <t>hub.musin.de</t>
+  </si>
+  <si>
+    <t>ib-jgw.musin.de</t>
+  </si>
+  <si>
+    <t>ikinfo.muc.kobis.de</t>
+  </si>
+  <si>
+    <t>ilse-von-twardowski.musin.de</t>
+  </si>
+  <si>
+    <t>informatik.musin.de</t>
+  </si>
+  <si>
+    <t>informatik-rs.musin.de</t>
+  </si>
+  <si>
+    <t>intramax.muc.kobis.de</t>
+  </si>
+  <si>
+    <t>intranet-bbg.musin.de</t>
+  </si>
+  <si>
+    <t>intranet-luise.musin.de</t>
+  </si>
+  <si>
+    <t>intranet-sf.musin.de</t>
+  </si>
+  <si>
+    <t>intranet-tmg.musin.de</t>
+  </si>
+  <si>
+    <t>intranet-wgg.musin.de</t>
+  </si>
+  <si>
+    <t>inzellerweg.musin.de</t>
+  </si>
+  <si>
+    <t>izanami.musin.de</t>
+  </si>
+  <si>
+    <t>jc-allach.muc.kobis.de</t>
+  </si>
+  <si>
+    <t>kaleidopaed.muc.kobis.de</t>
+  </si>
+  <si>
+    <t>karli.musin.de</t>
+  </si>
+  <si>
+    <t>keilberth.musin.de</t>
+  </si>
+  <si>
+    <t>keilberthschule.musin.de</t>
+  </si>
+  <si>
+    <t>kids.muc.kobis.de</t>
+  </si>
+  <si>
+    <t>kids-muenchen.musin.de</t>
+  </si>
+  <si>
+    <t>kita-ries.musin.de</t>
+  </si>
+  <si>
+    <t>kitaschoen.musin.de</t>
+  </si>
+  <si>
+    <t>kkg.musin.de</t>
+  </si>
+  <si>
+    <t>kkgweb.musin.de</t>
+  </si>
+  <si>
+    <t>kohn.musin.de</t>
+  </si>
+  <si>
+    <t>kommbi.musin.de</t>
+  </si>
+  <si>
+    <t>kontrapunkt.muc.kobis.de</t>
+  </si>
+  <si>
+    <t>ks-muc.muc.kobis.de</t>
+  </si>
+  <si>
+    <t>lfg.musin.de</t>
+  </si>
+  <si>
+    <t>lg.musin.de</t>
+  </si>
+  <si>
+    <t>lg-smv.musin.de</t>
+  </si>
+  <si>
+    <t>lionbot.musin.de</t>
+  </si>
+  <si>
+    <t>lpg.musin.de</t>
+  </si>
+  <si>
+    <t>lsa.musin.de</t>
+  </si>
+  <si>
+    <t>lsa2.muc.kobis.de</t>
+  </si>
+  <si>
+    <t>lsayouth.musin.de</t>
+  </si>
+  <si>
+    <t>lsg.musin.de</t>
+  </si>
+  <si>
+    <t>lsg1.musin.de</t>
+  </si>
+  <si>
+    <t>maedchenrechte.muc.kobis.de</t>
+  </si>
+  <si>
+    <t>maria-ward.musin.de</t>
+  </si>
+  <si>
+    <t>maxgym.musin.de</t>
+  </si>
+  <si>
+    <t>mbobbost.musin.de</t>
+  </si>
+  <si>
+    <t>mbobbostpa.musin.de</t>
+  </si>
+  <si>
+    <t>mbtp-deroy.musin.de</t>
+  </si>
+  <si>
+    <t>mbtz-deroy.musin.de</t>
+  </si>
+  <si>
+    <t>mbwest.musin.de</t>
+  </si>
+  <si>
+    <t>mdm-deroy.musin.de</t>
+  </si>
+  <si>
+    <t>mek.musin.de</t>
+  </si>
+  <si>
+    <t>mes.musin.de</t>
+  </si>
+  <si>
+    <t>mfrs.musin.de</t>
+  </si>
+  <si>
+    <t>mgm.musin.de</t>
+  </si>
+  <si>
+    <t>mhoch4.muc.kobis.de</t>
+  </si>
+  <si>
+    <t>mib.musin.de</t>
+  </si>
+  <si>
+    <t>mittelschuleallach.musin.de</t>
+  </si>
+  <si>
+    <t>mk.musin.de</t>
+  </si>
+  <si>
+    <t>mk2.musin.de</t>
+  </si>
+  <si>
+    <t>mkmobil.muc.kobis.de</t>
+  </si>
+  <si>
+    <t>mmm.musin.de</t>
+  </si>
+  <si>
+    <t>mpg.musin.de</t>
+  </si>
+  <si>
+    <t>mpr.musin.de</t>
+  </si>
+  <si>
+    <t>mscincin.musin.de</t>
+  </si>
+  <si>
+    <t>msfeld.musin.de</t>
+  </si>
+  <si>
+    <t>msfeldberg.musin.de</t>
+  </si>
+  <si>
+    <t>msfromund.musin.de</t>
+  </si>
+  <si>
+    <t>msfuehrich.musin.de</t>
+  </si>
+  <si>
+    <t>msfuerstenrieder.musin.de</t>
+  </si>
+  <si>
+    <t>ms-ghr.musin.de</t>
+  </si>
+  <si>
+    <t>msgold.musin.de</t>
+  </si>
+  <si>
+    <t>ms-gotzing.musin.de</t>
+  </si>
+  <si>
+    <t>msguardini.musin.de</t>
+  </si>
+  <si>
+    <t>mshaldenberger.musin.de</t>
+  </si>
+  <si>
+    <t>mshobi.musin.de</t>
+  </si>
+  <si>
+    <t>msknapp.musin.de</t>
+  </si>
+  <si>
+    <t>mskond.musin.de</t>
+  </si>
+  <si>
+    <t>msm.musin.de</t>
+  </si>
+  <si>
+    <t>ms-neuaubing.musin.de</t>
+  </si>
+  <si>
+    <t>msot.musin.de</t>
+  </si>
+  <si>
+    <t>msp.musin.de</t>
+  </si>
+  <si>
+    <t>ms-ridler.musin.de</t>
+  </si>
+  <si>
+    <t>msschleiss.musin.de</t>
+  </si>
+  <si>
+    <t>msschrob.musin.de</t>
+  </si>
+  <si>
+    <t>ms-simmern.musin.de</t>
+  </si>
+  <si>
+    <t>mssituli.musin.de</t>
+  </si>
+  <si>
+    <t>mswoerth.musin.de</t>
+  </si>
+  <si>
+    <t>mtg.musin.de</t>
+  </si>
+  <si>
+    <t>mvhs.musin.de</t>
+  </si>
+  <si>
+    <t>mwmr.musin.de</t>
+  </si>
+  <si>
+    <t>mzm.musin.de</t>
+  </si>
+  <si>
+    <t>nadischule.musin.de</t>
+  </si>
+  <si>
+    <t>nextcloud-dom-pedro.musin.de</t>
+  </si>
+  <si>
+    <t>oekotech.musin.de</t>
+  </si>
+  <si>
+    <t>omg.musin.de</t>
+  </si>
+  <si>
+    <t>ori.musin.de</t>
+  </si>
+  <si>
+    <t>oriblog.musin.de</t>
+  </si>
+  <si>
+    <t>oselschule.musin.de</t>
+  </si>
+  <si>
+    <t>ostpreussen.musin.de</t>
+  </si>
+  <si>
+    <t>perlacher.musin.de</t>
+  </si>
+  <si>
+    <t>pga.muc.kobis.de</t>
+  </si>
+  <si>
+    <t>pgm.musin.de</t>
+  </si>
+  <si>
+    <t>phantasie.musin.de</t>
+  </si>
+  <si>
+    <t>plw.muc.kobsis.de</t>
+  </si>
+  <si>
+    <t>pnhigh.musin.de</t>
+  </si>
+  <si>
+    <t>polisghrhs.musin.de</t>
+  </si>
+  <si>
+    <t>prnews.musin.de</t>
+  </si>
+  <si>
+    <t>prof-speck.musin.de</t>
+  </si>
+  <si>
+    <t>promedia.muc.kobis.de</t>
+  </si>
+  <si>
+    <t>qse.muc.kobis.de</t>
+  </si>
+  <si>
+    <t>qsebs.muc.kobis.de</t>
+  </si>
+  <si>
+    <t>qsef2.musin.de</t>
+  </si>
+  <si>
+    <t>rb.musin.de</t>
+  </si>
+  <si>
+    <t>rbsa.musin.de</t>
+  </si>
+  <si>
+    <t>rdr.musin.de</t>
+  </si>
+  <si>
+    <t>realschule-riem.musin.de</t>
+  </si>
+  <si>
+    <t>rica.musin.de</t>
+  </si>
+  <si>
+    <t>rica2.musin.de</t>
+  </si>
+  <si>
+    <t>robofos.musin.de</t>
+  </si>
+  <si>
+    <t>rockefeller.musin.de</t>
+  </si>
+  <si>
+    <t>roro.muc.kobis.de</t>
+  </si>
+  <si>
+    <t>rotbuchen.musin.de</t>
+  </si>
+  <si>
+    <t>rsb.musin.de</t>
+  </si>
+  <si>
+    <t>rsk.musin.de</t>
+  </si>
+  <si>
+    <t>rupprecht-gymnasium.musin.de</t>
+  </si>
+  <si>
+    <t>rwf-fos.musin.de</t>
+  </si>
+  <si>
+    <t>rws.musin.de</t>
+  </si>
+  <si>
+    <t>sag.musin.de</t>
+  </si>
+  <si>
+    <t>sal.musin.de</t>
+  </si>
+  <si>
+    <t>samberger.musin.de</t>
+  </si>
+  <si>
+    <t>samberger-nextcloud.musin.de</t>
+  </si>
+  <si>
+    <t>sams.musin.de</t>
+  </si>
+  <si>
+    <t>sar.musin.de</t>
+  </si>
+  <si>
+    <t>schaefer.musin.de</t>
+  </si>
+  <si>
+    <t>sch-f1.musin.de</t>
+  </si>
+  <si>
+    <t>schilf.musin.de</t>
+  </si>
+  <si>
+    <t>schulamt.musin.de</t>
+  </si>
+  <si>
+    <t>schulamt-muenchen.musin.de</t>
+  </si>
+  <si>
+    <t>schulberatung.musin.de</t>
+  </si>
+  <si>
+    <t>schulix.musin.de</t>
+  </si>
+  <si>
+    <t>schulpsychologie.musin.de</t>
+  </si>
+  <si>
+    <t>schulung.musin.de</t>
+  </si>
+  <si>
+    <t>schuwinet.musin.de</t>
+  </si>
+  <si>
+    <t>schwind.musin.de</t>
+  </si>
+  <si>
+    <t>seminarble.musin.de</t>
+  </si>
+  <si>
+    <t>sem-kunst.muc.kobis.de</t>
+  </si>
+  <si>
+    <t>senefelder.musin.de</t>
+  </si>
+  <si>
+    <t>sfk.musin.de</t>
+  </si>
+  <si>
+    <t>sfz-an-der-isar.musin.de</t>
+  </si>
+  <si>
+    <t>sfz-muenchen.musin.de</t>
+  </si>
+  <si>
+    <t>sfz-muenchen-mitte1.musin.de</t>
+  </si>
+  <si>
+    <t>sfz-muenchen-nord.musin.de</t>
+  </si>
+  <si>
+    <t>sfz-muenchen-nordwest.musin.de</t>
+  </si>
+  <si>
+    <t>sfz-muenchen-ost.musin.de</t>
+  </si>
+  <si>
+    <t>sfzno.musin.de</t>
+  </si>
+  <si>
+    <t>shsdroste.musin.de</t>
+  </si>
+  <si>
+    <t>simmern2.musin.de</t>
+  </si>
+  <si>
+    <t>simmern-gs.musin.de</t>
+  </si>
+  <si>
+    <t>sis.muc.kobis.de</t>
+  </si>
+  <si>
+    <t>slh.musin.de</t>
+  </si>
+  <si>
+    <t>sms.musin.de</t>
+  </si>
+  <si>
+    <t>smsm.musin.de</t>
+  </si>
+  <si>
+    <t>sozpaedfs.musin.de</t>
+  </si>
+  <si>
+    <t>spitzrs.musin.de</t>
+  </si>
+  <si>
+    <t>ssg.musin.de</t>
+  </si>
+  <si>
+    <t>ssg-physik.musin.de</t>
+  </si>
+  <si>
+    <t>ssv.musin.de</t>
+  </si>
+  <si>
+    <t>stahlgr.musin.de</t>
+  </si>
+  <si>
+    <t>starsmiii.musin.de</t>
+  </si>
+  <si>
+    <t>steps.musin.de</t>
+  </si>
+  <si>
+    <t>st-martin.musin.de</t>
+  </si>
+  <si>
+    <t>stuntz.musin.de</t>
+  </si>
+  <si>
+    <t>suedliche.musin.de</t>
+  </si>
+  <si>
+    <t>suedliche2.musin.de</t>
+  </si>
+  <si>
+    <t>sysgym.musin.de</t>
+  </si>
+  <si>
+    <t>teams.musin.de</t>
+  </si>
+  <si>
+    <t>technik.musin.de</t>
+  </si>
+  <si>
+    <t>th-als.musin.de</t>
+  </si>
+  <si>
+    <t>th-diesel.musin.de</t>
+  </si>
+  <si>
+    <t>thg.musin.de</t>
+  </si>
+  <si>
+    <t>ths.musin.de</t>
+  </si>
+  <si>
+    <t>th-theo.musin.de</t>
+  </si>
+  <si>
+    <t>thweiss.musin.de</t>
+  </si>
+  <si>
+    <t>tippfit.muc.kobis.de</t>
+  </si>
+  <si>
+    <t>tlg.musin.de</t>
+  </si>
+  <si>
+    <t>tmg.musin.de</t>
+  </si>
+  <si>
+    <t>totah.musin.de</t>
+  </si>
+  <si>
+    <t>tps.musin.de</t>
+  </si>
+  <si>
+    <t>tskfz.musin.de</t>
+  </si>
+  <si>
+    <t>tsm.musin.de</t>
+  </si>
+  <si>
+    <t>ts-umwelt.musin.de</t>
+  </si>
+  <si>
+    <t>tumblinger.musin.de</t>
+  </si>
+  <si>
+    <t>tusch.muc.kobis.de</t>
+  </si>
+  <si>
+    <t>umfrage.musin.de</t>
+  </si>
+  <si>
+    <t>umfrage-test.musin.de</t>
+  </si>
+  <si>
+    <t>video-pi.musin.de</t>
+  </si>
+  <si>
+    <t>vsamphion.musin.de</t>
+  </si>
+  <si>
+    <t>vsth.musin.de</t>
+  </si>
+  <si>
+    <t>vsweil.musin.de</t>
+  </si>
+  <si>
+    <t>waldmeisterschule.musin.de</t>
+  </si>
+  <si>
+    <t>wbg.musin.de</t>
+  </si>
+  <si>
+    <t>wbg2.musin.de</t>
+  </si>
+  <si>
+    <t>wbg-test.musin.de</t>
+  </si>
+  <si>
+    <t>wbr.musin.de</t>
+  </si>
+  <si>
+    <t>weiterbildungschancen.muc.kobis.de</t>
+  </si>
+  <si>
+    <t>wsr.musin.de</t>
+  </si>
+  <si>
+    <t>w-tz.musin.de</t>
+  </si>
+  <si>
+    <t>zfa.musin.de</t>
+  </si>
+  <si>
+    <t>zielstatt.musin.de</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>http://cloud-geb.musin.de</t>
-  </si>
-  <si>
-    <t>http://adl.musin.de</t>
-  </si>
-  <si>
-    <t>http://afr.musin.de</t>
-  </si>
-  <si>
-    <t>http://afrblog.musin.de</t>
-  </si>
-  <si>
-    <t>http://ag.musin.de</t>
-  </si>
-  <si>
-    <t>http://agilolfi.musin.de</t>
-  </si>
-  <si>
-    <t>http://ak-mathe.muc.kobis.de</t>
-  </si>
-  <si>
-    <t>http://akr.musin.de</t>
-  </si>
-  <si>
-    <t>http://arbeitskreis-schule-wirtschaft.musin.de</t>
-  </si>
-  <si>
-    <t>http://asam-gymnasium.musin.de</t>
-  </si>
-  <si>
-    <t>http://aschweitzer.musin.de</t>
-  </si>
-  <si>
-    <t>http://asg.musin.de</t>
-  </si>
-  <si>
-    <t>http://asr.musin.de</t>
-  </si>
-  <si>
-    <t>http://asr2.musin.de</t>
-  </si>
-  <si>
-    <t>http://awb.musin.de</t>
-  </si>
-  <si>
-    <t>http://awg.musin.de</t>
-  </si>
-  <si>
-    <t>http://awgintra.musin.de</t>
-  </si>
-  <si>
-    <t>http://bau-gebht.musin.de</t>
-  </si>
-  <si>
-    <t>http://bau-gebkri.musin.de</t>
-  </si>
-  <si>
-    <t>http://bau-gkb.musin.de</t>
-  </si>
-  <si>
-    <t>http://bauhausplatz9.musin.de</t>
-  </si>
-  <si>
-    <t>http://bbg.musin.de</t>
-  </si>
-  <si>
-    <t>http://bdb.musin.de</t>
-  </si>
-  <si>
-    <t>http://bergmann.musin.de</t>
-  </si>
-  <si>
-    <t>http://berufsintegration.musin.de</t>
-  </si>
-  <si>
-    <t>http://birkenfeld.musin.de</t>
-  </si>
-  <si>
-    <t>http://bnrs.musin.de</t>
-  </si>
-  <si>
-    <t>http://boki.musin.de</t>
-  </si>
-  <si>
-    <t>http://boki2.musin.de</t>
-  </si>
-  <si>
-    <t>http://books.musin.de</t>
-  </si>
-  <si>
-    <t>http://boschl.musin.de</t>
-  </si>
-  <si>
-    <t>http://bosgs.musin.de</t>
-  </si>
-  <si>
-    <t>http://bos-sozial.musin.de</t>
-  </si>
-  <si>
-    <t>http://boswirt.musin.de</t>
-  </si>
-  <si>
-    <t>http://bs-auge.musin.de</t>
-  </si>
-  <si>
-    <t>http://bsbaeko.musin.de</t>
-  </si>
-  <si>
-    <t>http://bsbkik.musin.de</t>
-  </si>
-  <si>
-    <t>http://bseinzelh.musin.de</t>
-  </si>
-  <si>
-    <t>http://bsfahrz.musin.de</t>
-  </si>
-  <si>
-    <t>http://bs-fia.musin.de</t>
-  </si>
-  <si>
-    <t>http://bs-finanz-immo.musin.de</t>
-  </si>
-  <si>
-    <t>http://bs-friseur.musin.de</t>
-  </si>
-  <si>
-    <t>http://bsgastro.musin.de</t>
-  </si>
-  <si>
-    <t>http://bsgastro2.musin.de</t>
-  </si>
-  <si>
-    <t>http://bs-gesundheit.musin.de</t>
-  </si>
-  <si>
-    <t>http://bs-gfv.musin.de</t>
-  </si>
-  <si>
-    <t>http://bsgha.musin.de</t>
-  </si>
-  <si>
-    <t>http://bshi.musin.de</t>
-  </si>
-  <si>
-    <t>http://bsie.musin.de</t>
-  </si>
-  <si>
-    <t>http://bsindus.musin.de</t>
-  </si>
-  <si>
-    <t>http://bsinfo.musin.de</t>
-  </si>
-  <si>
-    <t>http://bsinstall.musin.de</t>
-  </si>
-  <si>
-    <t>http://bskfz.musin.de</t>
-  </si>
-  <si>
-    <t>http://bskinde.musin.de</t>
-  </si>
-  <si>
-    <t>http://bskomm.musin.de</t>
-  </si>
-  <si>
-    <t>http://bsmedien.musin.de</t>
-  </si>
-  <si>
-    <t>http://bsmedien2.musin.de</t>
-  </si>
-  <si>
-    <t>http://bsmetzger.musin.de</t>
-  </si>
-  <si>
-    <t>http://bsortho.musin.de</t>
-  </si>
-  <si>
-    <t>http://bspedtour.musin.de</t>
-  </si>
-  <si>
-    <t>http://bs-recht.musin.de</t>
-  </si>
-  <si>
-    <t>http://bs-steuern.musin.de</t>
-  </si>
-  <si>
-    <t>http://bs-stimmo.musin.de</t>
-  </si>
-  <si>
-    <t>http://bsv.musin.de</t>
-  </si>
-  <si>
-    <t>http://bszfahrzeugtechnik.musin.de</t>
-  </si>
-  <si>
-    <t>http://bsz-intern.musin.de</t>
-  </si>
-  <si>
-    <t>http://bs-zt-chem.musin.de</t>
-  </si>
-  <si>
-    <t>http://burmester.musin.de</t>
-  </si>
-  <si>
-    <t>http://bvjinfo.muc.kobis.de</t>
-  </si>
-  <si>
-    <t>http://bzao.musin.de</t>
-  </si>
-  <si>
-    <t>http://bzmswlba.musin.de</t>
-  </si>
-  <si>
-    <t>http://bzs-solar.musin.de</t>
-  </si>
-  <si>
-    <t>http://camerloher-schule.musin.de</t>
-  </si>
-  <si>
-    <t>http://cc.musin.de</t>
-  </si>
-  <si>
-    <t>http://cincin-daten.musin.de</t>
-  </si>
-  <si>
-    <t>http://clippy.musin.de</t>
-  </si>
-  <si>
-    <t>http://cloud.musin.de</t>
-  </si>
-  <si>
-    <t>http://comenius.muc.kobis.de</t>
-  </si>
-  <si>
-    <t>http://csr.musin.de</t>
-  </si>
-  <si>
-    <t>http://cvl.musin.de</t>
-  </si>
-  <si>
-    <t>http://dag.musin.de</t>
-  </si>
-  <si>
-    <t>http://dasegg.musin.de</t>
-  </si>
-  <si>
-    <t>http://datencincin.musin.de</t>
-  </si>
-  <si>
-    <t>http://datenschutz-fs.musin.de</t>
-  </si>
-  <si>
-    <t>http://daz.muc.kobis.de</t>
-  </si>
-  <si>
-    <t>http://dom-pedro.musin.de</t>
-  </si>
-  <si>
-    <t>http://dompedro-nextcloud.musin.de</t>
-  </si>
-  <si>
-    <t>http://droste.musin.de</t>
-  </si>
-  <si>
-    <t>http://eb-helmholtz.musin.de</t>
-  </si>
-  <si>
-    <t>http://ed-sprang.musin.de</t>
-  </si>
-  <si>
-    <t>http://ehr.musin.de</t>
-  </si>
-  <si>
-    <t>http://ekr.musin.de</t>
-  </si>
-  <si>
-    <t>http://elly-heuss.musin.de</t>
-  </si>
-  <si>
-    <t>http://elsa.musin.de</t>
-  </si>
-  <si>
-    <t>http://elteer.musin.de</t>
-  </si>
-  <si>
-    <t>http://er.musin.de</t>
-  </si>
-  <si>
-    <t>http://eversbusch.musin.de</t>
+    <t>found google-font</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -370,11 +1691,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -689,18 +2007,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B91F8D20-F582-431E-AA07-C7EF1F520B30}">
-  <dimension ref="A1:C98"/>
+  <dimension ref="A1:C537"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="B83" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="36.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="36.796875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="33.19921875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -708,136 +2027,169 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -845,7 +2197,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -853,7 +2208,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -861,7 +2219,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -869,7 +2230,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -877,7 +2241,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -885,7 +2252,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -893,7 +2263,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -901,7 +2274,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -909,7 +2285,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -917,7 +2296,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -925,7 +2307,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -933,7 +2318,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -941,7 +2329,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -949,7 +2340,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -957,7 +2351,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -965,7 +2362,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -973,7 +2373,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -981,7 +2384,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -989,7 +2395,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -997,7 +2406,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1005,7 +2417,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="C37" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1013,7 +2428,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1021,7 +2439,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1029,7 +2450,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="C40" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1037,7 +2461,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1045,7 +2469,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="C42" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1053,7 +2480,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="C43" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1061,7 +2491,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="C44" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1069,7 +2502,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+      <c r="C45" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1077,7 +2513,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="C46" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1085,7 +2524,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="C47" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1093,7 +2535,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="C48" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1101,7 +2546,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="C49" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1109,7 +2557,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="C50" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1117,7 +2568,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="C51" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1125,7 +2579,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>52</v>
+      </c>
+      <c r="C52" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1133,7 +2590,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="C53" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1141,7 +2601,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>54</v>
+      </c>
+      <c r="C54" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1149,7 +2612,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>55</v>
+      </c>
+      <c r="C55" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1157,7 +2623,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="C56" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1165,7 +2634,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="C57" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1173,7 +2645,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="C58" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1181,7 +2656,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+      <c r="C59" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1189,7 +2667,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="C60" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1197,7 +2678,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>61</v>
+      </c>
+      <c r="C61" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1205,7 +2689,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>62</v>
+      </c>
+      <c r="C62" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1213,7 +2700,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="C63" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1221,7 +2711,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>64</v>
+      </c>
+      <c r="C64" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1229,7 +2722,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>65</v>
+      </c>
+      <c r="C65" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1237,7 +2733,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>68</v>
+        <v>66</v>
+      </c>
+      <c r="C66" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -1245,7 +2744,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>67</v>
+      </c>
+      <c r="C67" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1253,7 +2755,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>68</v>
+      </c>
+      <c r="C68" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1261,7 +2766,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>69</v>
+      </c>
+      <c r="C69" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1269,7 +2777,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>70</v>
+      </c>
+      <c r="C70" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1277,7 +2788,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>71</v>
+      </c>
+      <c r="C71" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1285,7 +2799,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>74</v>
+        <v>72</v>
+      </c>
+      <c r="C72" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1293,7 +2810,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>73</v>
+      </c>
+      <c r="C73" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1301,7 +2821,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>74</v>
+      </c>
+      <c r="C74" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1309,7 +2832,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>75</v>
+      </c>
+      <c r="C75" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1317,7 +2843,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>76</v>
+      </c>
+      <c r="C76" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1325,7 +2854,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>77</v>
+      </c>
+      <c r="C77" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1333,7 +2865,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>3</v>
+        <v>78</v>
+      </c>
+      <c r="C78" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1341,7 +2876,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="C79" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1349,7 +2887,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="C80" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1357,7 +2898,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="C81" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1365,7 +2909,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="C82" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1373,7 +2920,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="C83" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1381,7 +2931,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="C84" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1389,7 +2942,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="C85" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1397,7 +2953,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="C86" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1405,7 +2964,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="C87" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1413,7 +2975,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="C88" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1421,7 +2986,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="C89" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1429,7 +2997,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>91</v>
+        <v>90</v>
+      </c>
+      <c r="C90" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1437,7 +3008,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>92</v>
+        <v>91</v>
+      </c>
+      <c r="C91" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1445,7 +3019,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+      <c r="C92" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1453,7 +3030,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="C93" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1461,7 +3041,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="C94" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1469,7 +3052,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="C95" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -1477,7 +3063,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>97</v>
+        <v>96</v>
+      </c>
+      <c r="C96" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1485,7 +3074,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>98</v>
+        <v>97</v>
+      </c>
+      <c r="C97" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1493,7 +3085,4833 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
+        <v>98</v>
+      </c>
+      <c r="C98" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
         <v>99</v>
+      </c>
+      <c r="C99" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>100</v>
+      </c>
+      <c r="C100" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>101</v>
+      </c>
+      <c r="C101" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>102</v>
+      </c>
+      <c r="C102" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>103</v>
+      </c>
+      <c r="C103" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>104</v>
+      </c>
+      <c r="C104" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>105</v>
+      </c>
+      <c r="C105" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>106</v>
+      </c>
+      <c r="C106" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>107</v>
+      </c>
+      <c r="C107" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>108</v>
+      </c>
+      <c r="C108" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>109</v>
+      </c>
+      <c r="C109" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>110</v>
+      </c>
+      <c r="C110" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>111</v>
+      </c>
+      <c r="C111" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>112</v>
+      </c>
+      <c r="C112" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>113</v>
+      </c>
+      <c r="C113" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>114</v>
+      </c>
+      <c r="C114" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>115</v>
+      </c>
+      <c r="C115" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>116</v>
+      </c>
+      <c r="C116" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>117</v>
+      </c>
+      <c r="C117" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>118</v>
+      </c>
+      <c r="C118" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>119</v>
+      </c>
+      <c r="C119" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>120</v>
+      </c>
+      <c r="C120" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>121</v>
+      </c>
+      <c r="C121" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>122</v>
+      </c>
+      <c r="C122" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>123</v>
+      </c>
+      <c r="C123" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>124</v>
+      </c>
+      <c r="C124" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>125</v>
+      </c>
+      <c r="C125" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>126</v>
+      </c>
+      <c r="C126" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>127</v>
+      </c>
+      <c r="C127" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>128</v>
+      </c>
+      <c r="C128" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>129</v>
+      </c>
+      <c r="C129" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>130</v>
+      </c>
+      <c r="C130" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>131</v>
+      </c>
+      <c r="C131" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>132</v>
+      </c>
+      <c r="C132" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>133</v>
+      </c>
+      <c r="C133" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>134</v>
+      </c>
+      <c r="C134" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>135</v>
+      </c>
+      <c r="C135" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>136</v>
+      </c>
+      <c r="C136" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>137</v>
+      </c>
+      <c r="C137" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>138</v>
+      </c>
+      <c r="C138" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>139</v>
+      </c>
+      <c r="C139" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>140</v>
+      </c>
+      <c r="C140" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>141</v>
+      </c>
+      <c r="C141" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>142</v>
+      </c>
+      <c r="C142" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>143</v>
+      </c>
+      <c r="C143" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>144</v>
+      </c>
+      <c r="C144" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>145</v>
+      </c>
+      <c r="C145" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>146</v>
+      </c>
+      <c r="C146" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>147</v>
+      </c>
+      <c r="C147" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>148</v>
+      </c>
+      <c r="C148" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>149</v>
+      </c>
+      <c r="C149" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>150</v>
+      </c>
+      <c r="C150" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>151</v>
+      </c>
+      <c r="C151" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>152</v>
+      </c>
+      <c r="C152" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>153</v>
+      </c>
+      <c r="C153" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>154</v>
+      </c>
+      <c r="C154" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>155</v>
+      </c>
+      <c r="C155" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>156</v>
+      </c>
+      <c r="C156" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>157</v>
+      </c>
+      <c r="C157" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>158</v>
+      </c>
+      <c r="C158" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>159</v>
+      </c>
+      <c r="C159" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>160</v>
+      </c>
+      <c r="C160" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>161</v>
+      </c>
+      <c r="C161" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>162</v>
+      </c>
+      <c r="C162" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>163</v>
+      </c>
+      <c r="C163" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>164</v>
+      </c>
+      <c r="C164" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>165</v>
+      </c>
+      <c r="C165" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>166</v>
+      </c>
+      <c r="C166" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>167</v>
+      </c>
+      <c r="C167" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>168</v>
+      </c>
+      <c r="C168" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>169</v>
+      </c>
+      <c r="C169" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>170</v>
+      </c>
+      <c r="C170" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>171</v>
+      </c>
+      <c r="C171" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>172</v>
+      </c>
+      <c r="C172" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>173</v>
+      </c>
+      <c r="C173" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>174</v>
+      </c>
+      <c r="C174" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>175</v>
+      </c>
+      <c r="C175" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>176</v>
+      </c>
+      <c r="C176" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>177</v>
+      </c>
+      <c r="C177" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>178</v>
+      </c>
+      <c r="C178" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>179</v>
+      </c>
+      <c r="C179" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>180</v>
+      </c>
+      <c r="C180" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>181</v>
+      </c>
+      <c r="C181" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>182</v>
+      </c>
+      <c r="C182" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>183</v>
+      </c>
+      <c r="C183" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>184</v>
+      </c>
+      <c r="C184" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>185</v>
+      </c>
+      <c r="C185" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>186</v>
+      </c>
+      <c r="C186" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>187</v>
+      </c>
+      <c r="C187" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>188</v>
+      </c>
+      <c r="C188" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>189</v>
+      </c>
+      <c r="C189" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>190</v>
+      </c>
+      <c r="C190" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>191</v>
+      </c>
+      <c r="C191" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>192</v>
+      </c>
+      <c r="C192" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>193</v>
+      </c>
+      <c r="C193" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>194</v>
+      </c>
+      <c r="C194" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>195</v>
+      </c>
+      <c r="C195" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>196</v>
+      </c>
+      <c r="C196" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>197</v>
+      </c>
+      <c r="C197" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>198</v>
+      </c>
+      <c r="C198" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>199</v>
+      </c>
+      <c r="C199" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>200</v>
+      </c>
+      <c r="C200" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>201</v>
+      </c>
+      <c r="C201" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>202</v>
+      </c>
+      <c r="C202" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>203</v>
+      </c>
+      <c r="C203" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>204</v>
+      </c>
+      <c r="C204" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>205</v>
+      </c>
+      <c r="C205" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>206</v>
+      </c>
+      <c r="C206" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>207</v>
+      </c>
+      <c r="C207" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>208</v>
+      </c>
+      <c r="C208" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>209</v>
+      </c>
+      <c r="C209" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>210</v>
+      </c>
+      <c r="C210" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211" t="s">
+        <v>211</v>
+      </c>
+      <c r="C211" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212" t="s">
+        <v>212</v>
+      </c>
+      <c r="C212" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213" t="s">
+        <v>213</v>
+      </c>
+      <c r="C213" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214" t="s">
+        <v>214</v>
+      </c>
+      <c r="C214" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
+        <v>215</v>
+      </c>
+      <c r="C215" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216" t="s">
+        <v>216</v>
+      </c>
+      <c r="C216" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217" t="s">
+        <v>217</v>
+      </c>
+      <c r="C217" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218" t="s">
+        <v>218</v>
+      </c>
+      <c r="C218" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219" t="s">
+        <v>219</v>
+      </c>
+      <c r="C219" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220" t="s">
+        <v>220</v>
+      </c>
+      <c r="C220" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221" t="s">
+        <v>221</v>
+      </c>
+      <c r="C221" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222" t="s">
+        <v>222</v>
+      </c>
+      <c r="C222" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223" t="s">
+        <v>223</v>
+      </c>
+      <c r="C223" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224" t="s">
+        <v>224</v>
+      </c>
+      <c r="C224" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225" t="s">
+        <v>225</v>
+      </c>
+      <c r="C225" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226" t="s">
+        <v>226</v>
+      </c>
+      <c r="C226" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227" t="s">
+        <v>227</v>
+      </c>
+      <c r="C227" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228" t="s">
+        <v>228</v>
+      </c>
+      <c r="C228" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229" t="s">
+        <v>229</v>
+      </c>
+      <c r="C229" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230" t="s">
+        <v>230</v>
+      </c>
+      <c r="C230" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231" t="s">
+        <v>231</v>
+      </c>
+      <c r="C231" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232" t="s">
+        <v>232</v>
+      </c>
+      <c r="C232" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233" t="s">
+        <v>233</v>
+      </c>
+      <c r="C233" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234" t="s">
+        <v>234</v>
+      </c>
+      <c r="C234" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235" t="s">
+        <v>235</v>
+      </c>
+      <c r="C235" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236" t="s">
+        <v>236</v>
+      </c>
+      <c r="C236" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237" t="s">
+        <v>237</v>
+      </c>
+      <c r="C237" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238" t="s">
+        <v>238</v>
+      </c>
+      <c r="C238" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239" t="s">
+        <v>239</v>
+      </c>
+      <c r="C239" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240" t="s">
+        <v>240</v>
+      </c>
+      <c r="C240" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241" t="s">
+        <v>241</v>
+      </c>
+      <c r="C241" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242" t="s">
+        <v>242</v>
+      </c>
+      <c r="C242" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243" t="s">
+        <v>243</v>
+      </c>
+      <c r="C243" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="B244" t="s">
+        <v>244</v>
+      </c>
+      <c r="C244" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="B245" t="s">
+        <v>245</v>
+      </c>
+      <c r="C245" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="B246" t="s">
+        <v>246</v>
+      </c>
+      <c r="C246" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="B247" t="s">
+        <v>247</v>
+      </c>
+      <c r="C247" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>247</v>
+      </c>
+      <c r="B248" t="s">
+        <v>248</v>
+      </c>
+      <c r="C248" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="B249" t="s">
+        <v>249</v>
+      </c>
+      <c r="C249" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>249</v>
+      </c>
+      <c r="B250" t="s">
+        <v>250</v>
+      </c>
+      <c r="C250" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>250</v>
+      </c>
+      <c r="B251" t="s">
+        <v>251</v>
+      </c>
+      <c r="C251" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="B252" t="s">
+        <v>252</v>
+      </c>
+      <c r="C252" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>252</v>
+      </c>
+      <c r="B253" t="s">
+        <v>253</v>
+      </c>
+      <c r="C253" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>253</v>
+      </c>
+      <c r="B254" t="s">
+        <v>254</v>
+      </c>
+      <c r="C254" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>254</v>
+      </c>
+      <c r="B255" t="s">
+        <v>255</v>
+      </c>
+      <c r="C255" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>255</v>
+      </c>
+      <c r="B256" t="s">
+        <v>256</v>
+      </c>
+      <c r="C256" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>256</v>
+      </c>
+      <c r="B257" t="s">
+        <v>257</v>
+      </c>
+      <c r="C257" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>257</v>
+      </c>
+      <c r="B258" t="s">
+        <v>258</v>
+      </c>
+      <c r="C258" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>258</v>
+      </c>
+      <c r="B259" t="s">
+        <v>259</v>
+      </c>
+      <c r="C259" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>259</v>
+      </c>
+      <c r="B260" t="s">
+        <v>260</v>
+      </c>
+      <c r="C260" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>260</v>
+      </c>
+      <c r="B261" t="s">
+        <v>261</v>
+      </c>
+      <c r="C261" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>261</v>
+      </c>
+      <c r="B262" t="s">
+        <v>262</v>
+      </c>
+      <c r="C262" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>262</v>
+      </c>
+      <c r="B263" t="s">
+        <v>263</v>
+      </c>
+      <c r="C263" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>263</v>
+      </c>
+      <c r="B264" t="s">
+        <v>264</v>
+      </c>
+      <c r="C264" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>264</v>
+      </c>
+      <c r="B265" t="s">
+        <v>265</v>
+      </c>
+      <c r="C265" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>265</v>
+      </c>
+      <c r="B266" t="s">
+        <v>266</v>
+      </c>
+      <c r="C266" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>266</v>
+      </c>
+      <c r="B267" t="s">
+        <v>267</v>
+      </c>
+      <c r="C267" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>267</v>
+      </c>
+      <c r="B268" t="s">
+        <v>268</v>
+      </c>
+      <c r="C268" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>268</v>
+      </c>
+      <c r="B269" t="s">
+        <v>269</v>
+      </c>
+      <c r="C269" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>269</v>
+      </c>
+      <c r="B270" t="s">
+        <v>270</v>
+      </c>
+      <c r="C270" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>270</v>
+      </c>
+      <c r="B271" t="s">
+        <v>271</v>
+      </c>
+      <c r="C271" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>271</v>
+      </c>
+      <c r="B272" t="s">
+        <v>272</v>
+      </c>
+      <c r="C272" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>272</v>
+      </c>
+      <c r="B273" t="s">
+        <v>273</v>
+      </c>
+      <c r="C273" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>273</v>
+      </c>
+      <c r="B274" t="s">
+        <v>274</v>
+      </c>
+      <c r="C274" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>274</v>
+      </c>
+      <c r="B275" t="s">
+        <v>275</v>
+      </c>
+      <c r="C275" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>275</v>
+      </c>
+      <c r="B276" t="s">
+        <v>276</v>
+      </c>
+      <c r="C276" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>276</v>
+      </c>
+      <c r="B277" t="s">
+        <v>277</v>
+      </c>
+      <c r="C277" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>277</v>
+      </c>
+      <c r="B278" t="s">
+        <v>278</v>
+      </c>
+      <c r="C278" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>278</v>
+      </c>
+      <c r="B279" t="s">
+        <v>279</v>
+      </c>
+      <c r="C279" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>279</v>
+      </c>
+      <c r="B280" t="s">
+        <v>280</v>
+      </c>
+      <c r="C280" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>280</v>
+      </c>
+      <c r="B281" t="s">
+        <v>281</v>
+      </c>
+      <c r="C281" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>281</v>
+      </c>
+      <c r="B282" t="s">
+        <v>282</v>
+      </c>
+      <c r="C282" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>282</v>
+      </c>
+      <c r="B283" t="s">
+        <v>283</v>
+      </c>
+      <c r="C283" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>283</v>
+      </c>
+      <c r="B284" t="s">
+        <v>284</v>
+      </c>
+      <c r="C284" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>284</v>
+      </c>
+      <c r="B285" t="s">
+        <v>285</v>
+      </c>
+      <c r="C285" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>285</v>
+      </c>
+      <c r="B286" t="s">
+        <v>286</v>
+      </c>
+      <c r="C286" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>286</v>
+      </c>
+      <c r="B287" t="s">
+        <v>287</v>
+      </c>
+      <c r="C287" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>287</v>
+      </c>
+      <c r="B288" t="s">
+        <v>288</v>
+      </c>
+      <c r="C288" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>288</v>
+      </c>
+      <c r="B289" t="s">
+        <v>289</v>
+      </c>
+      <c r="C289" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>289</v>
+      </c>
+      <c r="B290" t="s">
+        <v>290</v>
+      </c>
+      <c r="C290" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>290</v>
+      </c>
+      <c r="B291" t="s">
+        <v>291</v>
+      </c>
+      <c r="C291" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>291</v>
+      </c>
+      <c r="B292" t="s">
+        <v>292</v>
+      </c>
+      <c r="C292" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>292</v>
+      </c>
+      <c r="B293" t="s">
+        <v>293</v>
+      </c>
+      <c r="C293" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>293</v>
+      </c>
+      <c r="B294" t="s">
+        <v>294</v>
+      </c>
+      <c r="C294" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>294</v>
+      </c>
+      <c r="B295" t="s">
+        <v>295</v>
+      </c>
+      <c r="C295" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>295</v>
+      </c>
+      <c r="B296" t="s">
+        <v>296</v>
+      </c>
+      <c r="C296" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>296</v>
+      </c>
+      <c r="B297" t="s">
+        <v>297</v>
+      </c>
+      <c r="C297" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>297</v>
+      </c>
+      <c r="B298" t="s">
+        <v>298</v>
+      </c>
+      <c r="C298" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>298</v>
+      </c>
+      <c r="B299" t="s">
+        <v>299</v>
+      </c>
+      <c r="C299" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>299</v>
+      </c>
+      <c r="B300" t="s">
+        <v>300</v>
+      </c>
+      <c r="C300" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>300</v>
+      </c>
+      <c r="B301" t="s">
+        <v>301</v>
+      </c>
+      <c r="C301" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>301</v>
+      </c>
+      <c r="B302" t="s">
+        <v>302</v>
+      </c>
+      <c r="C302" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>302</v>
+      </c>
+      <c r="B303" t="s">
+        <v>303</v>
+      </c>
+      <c r="C303" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>303</v>
+      </c>
+      <c r="B304" t="s">
+        <v>304</v>
+      </c>
+      <c r="C304" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>304</v>
+      </c>
+      <c r="B305" t="s">
+        <v>305</v>
+      </c>
+      <c r="C305" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>305</v>
+      </c>
+      <c r="B306" t="s">
+        <v>306</v>
+      </c>
+      <c r="C306" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>306</v>
+      </c>
+      <c r="B307" t="s">
+        <v>307</v>
+      </c>
+      <c r="C307" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>307</v>
+      </c>
+      <c r="B308" t="s">
+        <v>308</v>
+      </c>
+      <c r="C308" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>308</v>
+      </c>
+      <c r="B309" t="s">
+        <v>309</v>
+      </c>
+      <c r="C309" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>309</v>
+      </c>
+      <c r="B310" t="s">
+        <v>310</v>
+      </c>
+      <c r="C310" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>310</v>
+      </c>
+      <c r="B311" t="s">
+        <v>311</v>
+      </c>
+      <c r="C311" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>311</v>
+      </c>
+      <c r="B312" t="s">
+        <v>312</v>
+      </c>
+      <c r="C312" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>312</v>
+      </c>
+      <c r="B313" t="s">
+        <v>313</v>
+      </c>
+      <c r="C313" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>313</v>
+      </c>
+      <c r="B314" t="s">
+        <v>314</v>
+      </c>
+      <c r="C314" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>314</v>
+      </c>
+      <c r="B315" t="s">
+        <v>315</v>
+      </c>
+      <c r="C315" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>315</v>
+      </c>
+      <c r="B316" t="s">
+        <v>316</v>
+      </c>
+      <c r="C316" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>316</v>
+      </c>
+      <c r="B317" t="s">
+        <v>317</v>
+      </c>
+      <c r="C317" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>317</v>
+      </c>
+      <c r="B318" t="s">
+        <v>318</v>
+      </c>
+      <c r="C318" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>318</v>
+      </c>
+      <c r="B319" t="s">
+        <v>319</v>
+      </c>
+      <c r="C319" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>319</v>
+      </c>
+      <c r="B320" t="s">
+        <v>320</v>
+      </c>
+      <c r="C320" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>320</v>
+      </c>
+      <c r="B321" t="s">
+        <v>321</v>
+      </c>
+      <c r="C321" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>321</v>
+      </c>
+      <c r="B322" t="s">
+        <v>322</v>
+      </c>
+      <c r="C322" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>322</v>
+      </c>
+      <c r="B323" t="s">
+        <v>323</v>
+      </c>
+      <c r="C323" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>323</v>
+      </c>
+      <c r="B324" t="s">
+        <v>324</v>
+      </c>
+      <c r="C324" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>324</v>
+      </c>
+      <c r="B325" t="s">
+        <v>325</v>
+      </c>
+      <c r="C325" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>325</v>
+      </c>
+      <c r="B326" t="s">
+        <v>326</v>
+      </c>
+      <c r="C326" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>326</v>
+      </c>
+      <c r="B327" t="s">
+        <v>327</v>
+      </c>
+      <c r="C327" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>327</v>
+      </c>
+      <c r="B328" t="s">
+        <v>328</v>
+      </c>
+      <c r="C328" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>328</v>
+      </c>
+      <c r="B329" t="s">
+        <v>329</v>
+      </c>
+      <c r="C329" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>329</v>
+      </c>
+      <c r="B330" t="s">
+        <v>330</v>
+      </c>
+      <c r="C330" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>330</v>
+      </c>
+      <c r="B331" t="s">
+        <v>331</v>
+      </c>
+      <c r="C331" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>331</v>
+      </c>
+      <c r="B332" t="s">
+        <v>332</v>
+      </c>
+      <c r="C332" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>332</v>
+      </c>
+      <c r="B333" t="s">
+        <v>333</v>
+      </c>
+      <c r="C333" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>333</v>
+      </c>
+      <c r="B334" t="s">
+        <v>334</v>
+      </c>
+      <c r="C334" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>334</v>
+      </c>
+      <c r="B335" t="s">
+        <v>335</v>
+      </c>
+      <c r="C335" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>335</v>
+      </c>
+      <c r="B336" t="s">
+        <v>336</v>
+      </c>
+      <c r="C336" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>336</v>
+      </c>
+      <c r="B337" t="s">
+        <v>337</v>
+      </c>
+      <c r="C337" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>337</v>
+      </c>
+      <c r="B338" t="s">
+        <v>338</v>
+      </c>
+      <c r="C338" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>338</v>
+      </c>
+      <c r="B339" t="s">
+        <v>339</v>
+      </c>
+      <c r="C339" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>339</v>
+      </c>
+      <c r="B340" t="s">
+        <v>340</v>
+      </c>
+      <c r="C340" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>340</v>
+      </c>
+      <c r="B341" t="s">
+        <v>341</v>
+      </c>
+      <c r="C341" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>341</v>
+      </c>
+      <c r="B342" t="s">
+        <v>342</v>
+      </c>
+      <c r="C342" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>342</v>
+      </c>
+      <c r="B343" t="s">
+        <v>343</v>
+      </c>
+      <c r="C343" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>343</v>
+      </c>
+      <c r="B344" t="s">
+        <v>344</v>
+      </c>
+      <c r="C344" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>344</v>
+      </c>
+      <c r="B345" t="s">
+        <v>345</v>
+      </c>
+      <c r="C345" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>345</v>
+      </c>
+      <c r="B346" t="s">
+        <v>346</v>
+      </c>
+      <c r="C346" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>346</v>
+      </c>
+      <c r="B347" t="s">
+        <v>347</v>
+      </c>
+      <c r="C347" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>347</v>
+      </c>
+      <c r="B348" t="s">
+        <v>348</v>
+      </c>
+      <c r="C348" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>348</v>
+      </c>
+      <c r="B349" t="s">
+        <v>349</v>
+      </c>
+      <c r="C349" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>349</v>
+      </c>
+      <c r="B350" t="s">
+        <v>350</v>
+      </c>
+      <c r="C350" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>350</v>
+      </c>
+      <c r="B351" t="s">
+        <v>351</v>
+      </c>
+      <c r="C351" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>351</v>
+      </c>
+      <c r="B352" t="s">
+        <v>352</v>
+      </c>
+      <c r="C352" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>352</v>
+      </c>
+      <c r="B353" t="s">
+        <v>353</v>
+      </c>
+      <c r="C353" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>353</v>
+      </c>
+      <c r="B354" t="s">
+        <v>354</v>
+      </c>
+      <c r="C354" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>354</v>
+      </c>
+      <c r="B355" t="s">
+        <v>355</v>
+      </c>
+      <c r="C355" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>355</v>
+      </c>
+      <c r="B356" t="s">
+        <v>356</v>
+      </c>
+      <c r="C356" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>356</v>
+      </c>
+      <c r="B357" t="s">
+        <v>357</v>
+      </c>
+      <c r="C357" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>357</v>
+      </c>
+      <c r="B358" t="s">
+        <v>358</v>
+      </c>
+      <c r="C358" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>358</v>
+      </c>
+      <c r="B359" t="s">
+        <v>359</v>
+      </c>
+      <c r="C359" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>359</v>
+      </c>
+      <c r="B360" t="s">
+        <v>360</v>
+      </c>
+      <c r="C360" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>360</v>
+      </c>
+      <c r="B361" t="s">
+        <v>361</v>
+      </c>
+      <c r="C361" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>361</v>
+      </c>
+      <c r="B362" t="s">
+        <v>362</v>
+      </c>
+      <c r="C362" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>362</v>
+      </c>
+      <c r="B363" t="s">
+        <v>363</v>
+      </c>
+      <c r="C363" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>363</v>
+      </c>
+      <c r="B364" t="s">
+        <v>364</v>
+      </c>
+      <c r="C364" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>364</v>
+      </c>
+      <c r="B365" t="s">
+        <v>365</v>
+      </c>
+      <c r="C365" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>365</v>
+      </c>
+      <c r="B366" t="s">
+        <v>366</v>
+      </c>
+      <c r="C366" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>366</v>
+      </c>
+      <c r="B367" t="s">
+        <v>367</v>
+      </c>
+      <c r="C367" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>367</v>
+      </c>
+      <c r="B368" t="s">
+        <v>368</v>
+      </c>
+      <c r="C368" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>368</v>
+      </c>
+      <c r="B369" t="s">
+        <v>369</v>
+      </c>
+      <c r="C369" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>369</v>
+      </c>
+      <c r="B370" t="s">
+        <v>370</v>
+      </c>
+      <c r="C370" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>370</v>
+      </c>
+      <c r="B371" t="s">
+        <v>371</v>
+      </c>
+      <c r="C371" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>371</v>
+      </c>
+      <c r="B372" t="s">
+        <v>372</v>
+      </c>
+      <c r="C372" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>372</v>
+      </c>
+      <c r="B373" t="s">
+        <v>373</v>
+      </c>
+      <c r="C373" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>373</v>
+      </c>
+      <c r="B374" t="s">
+        <v>374</v>
+      </c>
+      <c r="C374" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>374</v>
+      </c>
+      <c r="B375" t="s">
+        <v>375</v>
+      </c>
+      <c r="C375" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>375</v>
+      </c>
+      <c r="B376" t="s">
+        <v>376</v>
+      </c>
+      <c r="C376" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>376</v>
+      </c>
+      <c r="B377" t="s">
+        <v>377</v>
+      </c>
+      <c r="C377" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>377</v>
+      </c>
+      <c r="B378" t="s">
+        <v>378</v>
+      </c>
+      <c r="C378" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>378</v>
+      </c>
+      <c r="B379" t="s">
+        <v>379</v>
+      </c>
+      <c r="C379" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>379</v>
+      </c>
+      <c r="B380" t="s">
+        <v>380</v>
+      </c>
+      <c r="C380" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>380</v>
+      </c>
+      <c r="B381" t="s">
+        <v>381</v>
+      </c>
+      <c r="C381" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>381</v>
+      </c>
+      <c r="B382" t="s">
+        <v>382</v>
+      </c>
+      <c r="C382" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>382</v>
+      </c>
+      <c r="B383" t="s">
+        <v>383</v>
+      </c>
+      <c r="C383" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>383</v>
+      </c>
+      <c r="B384" t="s">
+        <v>384</v>
+      </c>
+      <c r="C384" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>384</v>
+      </c>
+      <c r="B385" t="s">
+        <v>385</v>
+      </c>
+      <c r="C385" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>385</v>
+      </c>
+      <c r="B386" t="s">
+        <v>386</v>
+      </c>
+      <c r="C386" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>386</v>
+      </c>
+      <c r="B387" t="s">
+        <v>387</v>
+      </c>
+      <c r="C387" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>387</v>
+      </c>
+      <c r="B388" t="s">
+        <v>388</v>
+      </c>
+      <c r="C388" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>388</v>
+      </c>
+      <c r="B389" t="s">
+        <v>389</v>
+      </c>
+      <c r="C389" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>389</v>
+      </c>
+      <c r="B390" t="s">
+        <v>390</v>
+      </c>
+      <c r="C390" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>390</v>
+      </c>
+      <c r="B391" t="s">
+        <v>391</v>
+      </c>
+      <c r="C391" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>391</v>
+      </c>
+      <c r="B392" t="s">
+        <v>392</v>
+      </c>
+      <c r="C392" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>392</v>
+      </c>
+      <c r="B393" t="s">
+        <v>393</v>
+      </c>
+      <c r="C393" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>393</v>
+      </c>
+      <c r="B394" t="s">
+        <v>394</v>
+      </c>
+      <c r="C394" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>394</v>
+      </c>
+      <c r="B395" t="s">
+        <v>395</v>
+      </c>
+      <c r="C395" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>395</v>
+      </c>
+      <c r="B396" t="s">
+        <v>396</v>
+      </c>
+      <c r="C396" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>396</v>
+      </c>
+      <c r="B397" t="s">
+        <v>397</v>
+      </c>
+      <c r="C397" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>397</v>
+      </c>
+      <c r="B398" t="s">
+        <v>398</v>
+      </c>
+      <c r="C398" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>398</v>
+      </c>
+      <c r="B399" t="s">
+        <v>399</v>
+      </c>
+      <c r="C399" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>399</v>
+      </c>
+      <c r="B400" t="s">
+        <v>400</v>
+      </c>
+      <c r="C400" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>400</v>
+      </c>
+      <c r="B401" t="s">
+        <v>401</v>
+      </c>
+      <c r="C401" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>401</v>
+      </c>
+      <c r="B402" t="s">
+        <v>402</v>
+      </c>
+      <c r="C402" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>402</v>
+      </c>
+      <c r="B403" t="s">
+        <v>403</v>
+      </c>
+      <c r="C403" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>403</v>
+      </c>
+      <c r="B404" t="s">
+        <v>404</v>
+      </c>
+      <c r="C404" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>404</v>
+      </c>
+      <c r="B405" t="s">
+        <v>405</v>
+      </c>
+      <c r="C405" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>405</v>
+      </c>
+      <c r="B406" t="s">
+        <v>406</v>
+      </c>
+      <c r="C406" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>406</v>
+      </c>
+      <c r="B407" t="s">
+        <v>407</v>
+      </c>
+      <c r="C407" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>407</v>
+      </c>
+      <c r="B408" t="s">
+        <v>408</v>
+      </c>
+      <c r="C408" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>408</v>
+      </c>
+      <c r="B409" t="s">
+        <v>409</v>
+      </c>
+      <c r="C409" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>409</v>
+      </c>
+      <c r="B410" t="s">
+        <v>410</v>
+      </c>
+      <c r="C410" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>410</v>
+      </c>
+      <c r="B411" t="s">
+        <v>411</v>
+      </c>
+      <c r="C411" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>411</v>
+      </c>
+      <c r="B412" t="s">
+        <v>412</v>
+      </c>
+      <c r="C412" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>412</v>
+      </c>
+      <c r="B413" t="s">
+        <v>413</v>
+      </c>
+      <c r="C413" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>413</v>
+      </c>
+      <c r="B414" t="s">
+        <v>414</v>
+      </c>
+      <c r="C414" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>414</v>
+      </c>
+      <c r="B415" t="s">
+        <v>415</v>
+      </c>
+      <c r="C415" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>415</v>
+      </c>
+      <c r="B416" t="s">
+        <v>416</v>
+      </c>
+      <c r="C416" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>416</v>
+      </c>
+      <c r="B417" t="s">
+        <v>417</v>
+      </c>
+      <c r="C417" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>417</v>
+      </c>
+      <c r="B418" t="s">
+        <v>418</v>
+      </c>
+      <c r="C418" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>418</v>
+      </c>
+      <c r="B419" t="s">
+        <v>419</v>
+      </c>
+      <c r="C419" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>419</v>
+      </c>
+      <c r="B420" t="s">
+        <v>420</v>
+      </c>
+      <c r="C420" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>420</v>
+      </c>
+      <c r="B421" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>421</v>
+      </c>
+      <c r="B422" t="s">
+        <v>422</v>
+      </c>
+      <c r="C422" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>422</v>
+      </c>
+      <c r="B423" t="s">
+        <v>423</v>
+      </c>
+      <c r="C423" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>423</v>
+      </c>
+      <c r="B424" t="s">
+        <v>424</v>
+      </c>
+      <c r="C424" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>424</v>
+      </c>
+      <c r="B425" t="s">
+        <v>425</v>
+      </c>
+      <c r="C425" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>425</v>
+      </c>
+      <c r="B426" t="s">
+        <v>426</v>
+      </c>
+      <c r="C426" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>426</v>
+      </c>
+      <c r="B427" t="s">
+        <v>427</v>
+      </c>
+      <c r="C427" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>427</v>
+      </c>
+      <c r="B428" t="s">
+        <v>428</v>
+      </c>
+      <c r="C428" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>428</v>
+      </c>
+      <c r="B429" t="s">
+        <v>429</v>
+      </c>
+      <c r="C429" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>429</v>
+      </c>
+      <c r="B430" t="s">
+        <v>430</v>
+      </c>
+      <c r="C430" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>430</v>
+      </c>
+      <c r="B431" t="s">
+        <v>431</v>
+      </c>
+      <c r="C431" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>431</v>
+      </c>
+      <c r="B432" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>432</v>
+      </c>
+      <c r="B433" t="s">
+        <v>433</v>
+      </c>
+      <c r="C433" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>433</v>
+      </c>
+      <c r="B434" t="s">
+        <v>434</v>
+      </c>
+      <c r="C434" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>434</v>
+      </c>
+      <c r="B435" t="s">
+        <v>435</v>
+      </c>
+      <c r="C435" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>435</v>
+      </c>
+      <c r="B436" t="s">
+        <v>436</v>
+      </c>
+      <c r="C436" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>436</v>
+      </c>
+      <c r="B437" t="s">
+        <v>437</v>
+      </c>
+      <c r="C437" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>437</v>
+      </c>
+      <c r="B438" t="s">
+        <v>438</v>
+      </c>
+      <c r="C438" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>438</v>
+      </c>
+      <c r="B439" t="s">
+        <v>439</v>
+      </c>
+      <c r="C439" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>439</v>
+      </c>
+      <c r="B440" t="s">
+        <v>440</v>
+      </c>
+      <c r="C440" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>440</v>
+      </c>
+      <c r="B441" t="s">
+        <v>441</v>
+      </c>
+      <c r="C441" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>441</v>
+      </c>
+      <c r="B442" t="s">
+        <v>442</v>
+      </c>
+      <c r="C442" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>442</v>
+      </c>
+      <c r="B443" t="s">
+        <v>443</v>
+      </c>
+      <c r="C443" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>443</v>
+      </c>
+      <c r="B444" t="s">
+        <v>444</v>
+      </c>
+      <c r="C444" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>444</v>
+      </c>
+      <c r="B445" t="s">
+        <v>445</v>
+      </c>
+      <c r="C445" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>445</v>
+      </c>
+      <c r="B446" t="s">
+        <v>446</v>
+      </c>
+      <c r="C446" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>446</v>
+      </c>
+      <c r="B447" t="s">
+        <v>447</v>
+      </c>
+      <c r="C447" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>447</v>
+      </c>
+      <c r="B448" t="s">
+        <v>448</v>
+      </c>
+      <c r="C448" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>448</v>
+      </c>
+      <c r="B449" t="s">
+        <v>449</v>
+      </c>
+      <c r="C449" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>449</v>
+      </c>
+      <c r="B450" t="s">
+        <v>450</v>
+      </c>
+      <c r="C450" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>450</v>
+      </c>
+      <c r="B451" t="s">
+        <v>451</v>
+      </c>
+      <c r="C451" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>451</v>
+      </c>
+      <c r="B452" t="s">
+        <v>452</v>
+      </c>
+      <c r="C452" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>452</v>
+      </c>
+      <c r="B453" t="s">
+        <v>453</v>
+      </c>
+      <c r="C453" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>453</v>
+      </c>
+      <c r="B454" t="s">
+        <v>454</v>
+      </c>
+      <c r="C454" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>454</v>
+      </c>
+      <c r="B455" t="s">
+        <v>455</v>
+      </c>
+      <c r="C455" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>455</v>
+      </c>
+      <c r="B456" t="s">
+        <v>456</v>
+      </c>
+      <c r="C456" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>456</v>
+      </c>
+      <c r="B457" t="s">
+        <v>457</v>
+      </c>
+      <c r="C457" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>457</v>
+      </c>
+      <c r="B458" t="s">
+        <v>458</v>
+      </c>
+      <c r="C458" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>458</v>
+      </c>
+      <c r="B459" t="s">
+        <v>459</v>
+      </c>
+      <c r="C459" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>459</v>
+      </c>
+      <c r="B460" t="s">
+        <v>460</v>
+      </c>
+      <c r="C460" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>460</v>
+      </c>
+      <c r="B461" t="s">
+        <v>461</v>
+      </c>
+      <c r="C461" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>461</v>
+      </c>
+      <c r="B462" t="s">
+        <v>462</v>
+      </c>
+      <c r="C462" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>462</v>
+      </c>
+      <c r="B463" t="s">
+        <v>463</v>
+      </c>
+      <c r="C463" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>463</v>
+      </c>
+      <c r="B464" t="s">
+        <v>464</v>
+      </c>
+      <c r="C464" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>464</v>
+      </c>
+      <c r="B465" t="s">
+        <v>465</v>
+      </c>
+      <c r="C465" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>465</v>
+      </c>
+      <c r="B466" t="s">
+        <v>466</v>
+      </c>
+      <c r="C466" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>466</v>
+      </c>
+      <c r="B467" t="s">
+        <v>467</v>
+      </c>
+      <c r="C467" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>467</v>
+      </c>
+      <c r="B468" t="s">
+        <v>468</v>
+      </c>
+      <c r="C468" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>468</v>
+      </c>
+      <c r="B469" t="s">
+        <v>469</v>
+      </c>
+      <c r="C469" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>469</v>
+      </c>
+      <c r="B470" t="s">
+        <v>470</v>
+      </c>
+      <c r="C470" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <v>470</v>
+      </c>
+      <c r="B471" t="s">
+        <v>471</v>
+      </c>
+      <c r="C471" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <v>471</v>
+      </c>
+      <c r="B472" t="s">
+        <v>472</v>
+      </c>
+      <c r="C472" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <v>472</v>
+      </c>
+      <c r="B473" t="s">
+        <v>473</v>
+      </c>
+      <c r="C473" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>473</v>
+      </c>
+      <c r="B474" t="s">
+        <v>474</v>
+      </c>
+      <c r="C474" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>474</v>
+      </c>
+      <c r="B475" t="s">
+        <v>475</v>
+      </c>
+      <c r="C475" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <v>475</v>
+      </c>
+      <c r="B476" t="s">
+        <v>476</v>
+      </c>
+      <c r="C476" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <v>476</v>
+      </c>
+      <c r="B477" t="s">
+        <v>477</v>
+      </c>
+      <c r="C477" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <v>477</v>
+      </c>
+      <c r="B478" t="s">
+        <v>478</v>
+      </c>
+      <c r="C478" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A479">
+        <v>478</v>
+      </c>
+      <c r="B479" t="s">
+        <v>479</v>
+      </c>
+      <c r="C479" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A480">
+        <v>479</v>
+      </c>
+      <c r="B480" t="s">
+        <v>480</v>
+      </c>
+      <c r="C480" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A481">
+        <v>480</v>
+      </c>
+      <c r="B481" t="s">
+        <v>481</v>
+      </c>
+      <c r="C481" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A482">
+        <v>481</v>
+      </c>
+      <c r="B482" t="s">
+        <v>482</v>
+      </c>
+      <c r="C482" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <v>482</v>
+      </c>
+      <c r="B483" t="s">
+        <v>483</v>
+      </c>
+      <c r="C483" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A484">
+        <v>483</v>
+      </c>
+      <c r="B484" t="s">
+        <v>484</v>
+      </c>
+      <c r="C484" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A485">
+        <v>484</v>
+      </c>
+      <c r="B485" t="s">
+        <v>485</v>
+      </c>
+      <c r="C485" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A486">
+        <v>485</v>
+      </c>
+      <c r="B486" t="s">
+        <v>486</v>
+      </c>
+      <c r="C486" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A487">
+        <v>486</v>
+      </c>
+      <c r="B487" t="s">
+        <v>487</v>
+      </c>
+      <c r="C487" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A488">
+        <v>487</v>
+      </c>
+      <c r="B488" t="s">
+        <v>488</v>
+      </c>
+      <c r="C488" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A489">
+        <v>488</v>
+      </c>
+      <c r="B489" t="s">
+        <v>489</v>
+      </c>
+      <c r="C489" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A490">
+        <v>489</v>
+      </c>
+      <c r="B490" t="s">
+        <v>490</v>
+      </c>
+      <c r="C490" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A491">
+        <v>490</v>
+      </c>
+      <c r="B491" t="s">
+        <v>491</v>
+      </c>
+      <c r="C491" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A492">
+        <v>491</v>
+      </c>
+      <c r="B492" t="s">
+        <v>492</v>
+      </c>
+      <c r="C492" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A493">
+        <v>492</v>
+      </c>
+      <c r="B493" t="s">
+        <v>493</v>
+      </c>
+      <c r="C493" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A494">
+        <v>493</v>
+      </c>
+      <c r="B494" t="s">
+        <v>494</v>
+      </c>
+      <c r="C494" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A495">
+        <v>494</v>
+      </c>
+      <c r="B495" t="s">
+        <v>495</v>
+      </c>
+      <c r="C495" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A496">
+        <v>495</v>
+      </c>
+      <c r="B496" t="s">
+        <v>496</v>
+      </c>
+      <c r="C496" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A497">
+        <v>496</v>
+      </c>
+      <c r="B497" t="s">
+        <v>497</v>
+      </c>
+      <c r="C497" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A498">
+        <v>497</v>
+      </c>
+      <c r="B498" t="s">
+        <v>498</v>
+      </c>
+      <c r="C498" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A499">
+        <v>498</v>
+      </c>
+      <c r="B499" t="s">
+        <v>499</v>
+      </c>
+      <c r="C499" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A500">
+        <v>499</v>
+      </c>
+      <c r="B500" t="s">
+        <v>500</v>
+      </c>
+      <c r="C500" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A501">
+        <v>500</v>
+      </c>
+      <c r="B501" t="s">
+        <v>501</v>
+      </c>
+      <c r="C501" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A502">
+        <v>501</v>
+      </c>
+      <c r="B502" t="s">
+        <v>502</v>
+      </c>
+      <c r="C502" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A503">
+        <v>502</v>
+      </c>
+      <c r="B503" t="s">
+        <v>503</v>
+      </c>
+      <c r="C503" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A504">
+        <v>503</v>
+      </c>
+      <c r="B504" t="s">
+        <v>504</v>
+      </c>
+      <c r="C504" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A505">
+        <v>504</v>
+      </c>
+      <c r="B505" t="s">
+        <v>505</v>
+      </c>
+      <c r="C505" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A506">
+        <v>505</v>
+      </c>
+      <c r="B506" t="s">
+        <v>506</v>
+      </c>
+      <c r="C506" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A507">
+        <v>506</v>
+      </c>
+      <c r="B507" t="s">
+        <v>507</v>
+      </c>
+      <c r="C507" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A508">
+        <v>507</v>
+      </c>
+      <c r="B508" t="s">
+        <v>508</v>
+      </c>
+      <c r="C508" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A509">
+        <v>508</v>
+      </c>
+      <c r="B509" t="s">
+        <v>509</v>
+      </c>
+      <c r="C509" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A510">
+        <v>509</v>
+      </c>
+      <c r="B510" t="s">
+        <v>510</v>
+      </c>
+      <c r="C510" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A511">
+        <v>510</v>
+      </c>
+      <c r="B511" t="s">
+        <v>511</v>
+      </c>
+      <c r="C511" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A512">
+        <v>511</v>
+      </c>
+      <c r="B512" t="s">
+        <v>512</v>
+      </c>
+      <c r="C512" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A513">
+        <v>512</v>
+      </c>
+      <c r="B513" t="s">
+        <v>513</v>
+      </c>
+      <c r="C513" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A514">
+        <v>513</v>
+      </c>
+      <c r="B514" t="s">
+        <v>514</v>
+      </c>
+      <c r="C514" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A515">
+        <v>514</v>
+      </c>
+      <c r="B515" t="s">
+        <v>515</v>
+      </c>
+      <c r="C515" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A516">
+        <v>515</v>
+      </c>
+      <c r="B516" t="s">
+        <v>516</v>
+      </c>
+      <c r="C516" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A517">
+        <v>516</v>
+      </c>
+      <c r="B517" t="s">
+        <v>517</v>
+      </c>
+      <c r="C517" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A518">
+        <v>517</v>
+      </c>
+      <c r="B518" t="s">
+        <v>518</v>
+      </c>
+      <c r="C518" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A519">
+        <v>518</v>
+      </c>
+      <c r="B519" t="s">
+        <v>519</v>
+      </c>
+      <c r="C519" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A520">
+        <v>519</v>
+      </c>
+      <c r="B520" t="s">
+        <v>520</v>
+      </c>
+      <c r="C520" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A521">
+        <v>520</v>
+      </c>
+      <c r="B521" t="s">
+        <v>521</v>
+      </c>
+      <c r="C521" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A522">
+        <v>521</v>
+      </c>
+      <c r="B522" t="s">
+        <v>522</v>
+      </c>
+      <c r="C522" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A523">
+        <v>522</v>
+      </c>
+      <c r="B523" t="s">
+        <v>523</v>
+      </c>
+      <c r="C523" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A524">
+        <v>523</v>
+      </c>
+      <c r="B524" t="s">
+        <v>524</v>
+      </c>
+      <c r="C524" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A525">
+        <v>524</v>
+      </c>
+      <c r="B525" t="s">
+        <v>525</v>
+      </c>
+      <c r="C525" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A526">
+        <v>525</v>
+      </c>
+      <c r="B526" t="s">
+        <v>526</v>
+      </c>
+      <c r="C526" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A527">
+        <v>526</v>
+      </c>
+      <c r="B527" t="s">
+        <v>527</v>
+      </c>
+      <c r="C527" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A528">
+        <v>527</v>
+      </c>
+      <c r="B528" t="s">
+        <v>528</v>
+      </c>
+      <c r="C528" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A529">
+        <v>528</v>
+      </c>
+      <c r="B529" t="s">
+        <v>529</v>
+      </c>
+      <c r="C529" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A530">
+        <v>529</v>
+      </c>
+      <c r="B530" t="s">
+        <v>530</v>
+      </c>
+      <c r="C530" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A531">
+        <v>530</v>
+      </c>
+      <c r="B531" t="s">
+        <v>531</v>
+      </c>
+      <c r="C531" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A532">
+        <v>531</v>
+      </c>
+      <c r="B532" t="s">
+        <v>532</v>
+      </c>
+      <c r="C532" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A533">
+        <v>532</v>
+      </c>
+      <c r="B533" t="s">
+        <v>533</v>
+      </c>
+      <c r="C533" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A534">
+        <v>533</v>
+      </c>
+      <c r="B534" t="s">
+        <v>534</v>
+      </c>
+      <c r="C534" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A535">
+        <v>534</v>
+      </c>
+      <c r="B535" t="s">
+        <v>535</v>
+      </c>
+      <c r="C535" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A536">
+        <v>535</v>
+      </c>
+      <c r="B536" t="s">
+        <v>536</v>
+      </c>
+      <c r="C536" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A537">
+        <v>536</v>
+      </c>
+      <c r="B537" t="s">
+        <v>537</v>
+      </c>
+      <c r="C537" t="s">
+        <v>538</v>
       </c>
     </row>
   </sheetData>
